--- a/HJA_sjSDM_paper/paper/Table S_Predictors.xlsx
+++ b/HJA_sjSDM_paper/paper/Table S_Predictors.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\UEA\gitHRepos\HJA_analyses_Kelpie\HJA_sjSDM_paper\paper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A04F57EC-46F5-4684-8BDC-E79471840A39}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F50BEB1F-2AD4-454A-A284-892CF260E2A4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-118" yWindow="-118" windowWidth="25370" windowHeight="13759" xr2:uid="{1F5AF100-70DA-4190-8C9E-773A29E62371}"/>
+    <workbookView xWindow="25017" yWindow="-118" windowWidth="25370" windowHeight="13759" xr2:uid="{1F5AF100-70DA-4190-8C9E-773A29E62371}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="164">
   <si>
     <t>be30</t>
   </si>
@@ -400,9 +400,6 @@
     <t>Slope</t>
   </si>
   <si>
-    <t>Area logged</t>
-  </si>
-  <si>
     <t>Area logged within last 40 years</t>
   </si>
   <si>
@@ -451,24 +448,6 @@
     <t>NBR</t>
   </si>
   <si>
-    <t>B1</t>
-  </si>
-  <si>
-    <t>B3</t>
-  </si>
-  <si>
-    <t>B4</t>
-  </si>
-  <si>
-    <t>B5</t>
-  </si>
-  <si>
-    <t>B7</t>
-  </si>
-  <si>
-    <t>B10</t>
-  </si>
-  <si>
     <t>Distance to stream</t>
   </si>
   <si>
@@ -482,6 +461,75 @@
   </si>
   <si>
     <t>y</t>
+  </si>
+  <si>
+    <t>Topographic Position Index (1k)</t>
+  </si>
+  <si>
+    <t>Topographic Position Index (250m)</t>
+  </si>
+  <si>
+    <t>Landsat B1</t>
+  </si>
+  <si>
+    <t>Landsat B5</t>
+  </si>
+  <si>
+    <t>min NDVI (100m)</t>
+  </si>
+  <si>
+    <t>min NDVI (500m)</t>
+  </si>
+  <si>
+    <t>median NDVI (100m)</t>
+  </si>
+  <si>
+    <t>median NDVI (500m)</t>
+  </si>
+  <si>
+    <t>Area logged (1 km)</t>
+  </si>
+  <si>
+    <t>Area logged (250m)</t>
+  </si>
+  <si>
+    <t>Area logged &lt; 40 years (250m)</t>
+  </si>
+  <si>
+    <t>Area logged &lt; 40 years (1 km)</t>
+  </si>
+  <si>
+    <t>max NDMI (100m)</t>
+  </si>
+  <si>
+    <t>std dev NBR (100m)</t>
+  </si>
+  <si>
+    <t>Vegetation &gt; 4m (500m)</t>
+  </si>
+  <si>
+    <t>Canopy cover (2-4m)</t>
+  </si>
+  <si>
+    <t>Canopy cover (2m+)</t>
+  </si>
+  <si>
+    <t>Canopy cover (4-16m)</t>
+  </si>
+  <si>
+    <t>Landsat B10</t>
+  </si>
+  <si>
+    <t>Landsat B3</t>
+  </si>
+  <si>
+    <t>Landsat B4</t>
+  </si>
+  <si>
+    <t>Landsat B7</t>
+  </si>
+  <si>
+    <t>Area logged (500m)</t>
   </si>
 </sst>
 </file>
@@ -845,20 +893,20 @@
   <dimension ref="A1:E58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="B54" sqref="B54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="17.21875" customWidth="1"/>
-    <col min="2" max="2" width="23.77734375" customWidth="1"/>
+    <col min="2" max="2" width="37.21875" customWidth="1"/>
     <col min="3" max="3" width="73.6640625" customWidth="1"/>
     <col min="4" max="4" width="18" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>111</v>
@@ -870,7 +918,7 @@
         <v>110</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -884,7 +932,7 @@
         <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -898,7 +946,7 @@
         <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -912,7 +960,7 @@
         <v>32</v>
       </c>
       <c r="D4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -920,16 +968,16 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>113</v>
+        <v>156</v>
       </c>
       <c r="C5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E5" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -937,16 +985,16 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>113</v>
+        <v>157</v>
       </c>
       <c r="C6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E6" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -954,16 +1002,16 @@
         <v>22</v>
       </c>
       <c r="B7" t="s">
-        <v>113</v>
+        <v>158</v>
       </c>
       <c r="C7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E7" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -977,10 +1025,10 @@
         <v>34</v>
       </c>
       <c r="D8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E8" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -994,7 +1042,7 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -1002,16 +1050,16 @@
         <v>27</v>
       </c>
       <c r="B10" t="s">
-        <v>115</v>
+        <v>155</v>
       </c>
       <c r="C10" t="s">
         <v>28</v>
       </c>
       <c r="D10" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E10" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -1025,7 +1073,7 @@
         <v>24</v>
       </c>
       <c r="D11" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
@@ -1039,10 +1087,10 @@
         <v>42</v>
       </c>
       <c r="D12" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E12" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
@@ -1056,10 +1104,10 @@
         <v>1</v>
       </c>
       <c r="D13" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E13" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
@@ -1073,10 +1121,10 @@
         <v>40</v>
       </c>
       <c r="D14" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E14" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
@@ -1090,7 +1138,7 @@
         <v>38</v>
       </c>
       <c r="D15" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
@@ -1098,16 +1146,16 @@
         <v>49</v>
       </c>
       <c r="B16" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="C16" t="s">
         <v>50</v>
       </c>
       <c r="D16" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E16" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
@@ -1115,16 +1163,16 @@
         <v>45</v>
       </c>
       <c r="B17" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="C17" t="s">
         <v>46</v>
       </c>
       <c r="D17" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E17" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
@@ -1132,13 +1180,13 @@
         <v>47</v>
       </c>
       <c r="B18" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C18" t="s">
         <v>48</v>
       </c>
       <c r="D18" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
@@ -1146,16 +1194,16 @@
         <v>35</v>
       </c>
       <c r="B19" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C19" t="s">
         <v>36</v>
       </c>
       <c r="D19" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E19" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
@@ -1163,16 +1211,16 @@
         <v>43</v>
       </c>
       <c r="B20" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C20" t="s">
         <v>44</v>
       </c>
       <c r="D20" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E20" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
@@ -1180,16 +1228,16 @@
         <v>98</v>
       </c>
       <c r="B21" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="C21" t="s">
         <v>99</v>
       </c>
       <c r="D21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E21" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
@@ -1197,13 +1245,13 @@
         <v>108</v>
       </c>
       <c r="B22" t="s">
-        <v>142</v>
+        <v>159</v>
       </c>
       <c r="C22" t="s">
         <v>109</v>
       </c>
       <c r="D22" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
@@ -1211,13 +1259,13 @@
         <v>100</v>
       </c>
       <c r="B23" t="s">
-        <v>138</v>
+        <v>160</v>
       </c>
       <c r="C23" t="s">
         <v>101</v>
       </c>
       <c r="D23" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
@@ -1225,13 +1273,13 @@
         <v>102</v>
       </c>
       <c r="B24" t="s">
-        <v>139</v>
+        <v>161</v>
       </c>
       <c r="C24" t="s">
         <v>103</v>
       </c>
       <c r="D24" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
@@ -1239,16 +1287,16 @@
         <v>104</v>
       </c>
       <c r="B25" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="C25" t="s">
         <v>105</v>
       </c>
       <c r="D25" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E25" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
@@ -1256,13 +1304,13 @@
         <v>106</v>
       </c>
       <c r="B26" t="s">
-        <v>141</v>
+        <v>162</v>
       </c>
       <c r="C26" t="s">
         <v>107</v>
       </c>
       <c r="D26" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
@@ -1270,16 +1318,16 @@
         <v>57</v>
       </c>
       <c r="B27" t="s">
-        <v>136</v>
+        <v>154</v>
       </c>
       <c r="C27" t="s">
         <v>58</v>
       </c>
       <c r="D27" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E27" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
@@ -1287,13 +1335,13 @@
         <v>59</v>
       </c>
       <c r="B28" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C28" t="s">
         <v>60</v>
       </c>
       <c r="D28" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
@@ -1301,13 +1349,13 @@
         <v>61</v>
       </c>
       <c r="B29" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C29" t="s">
         <v>62</v>
       </c>
       <c r="D29" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
@@ -1315,13 +1363,13 @@
         <v>81</v>
       </c>
       <c r="B30" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C30" t="s">
         <v>82</v>
       </c>
       <c r="D30" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
@@ -1329,13 +1377,13 @@
         <v>83</v>
       </c>
       <c r="B31" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C31" t="s">
         <v>84</v>
       </c>
       <c r="D31" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
@@ -1343,13 +1391,13 @@
         <v>85</v>
       </c>
       <c r="B32" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C32" t="s">
         <v>86</v>
       </c>
       <c r="D32" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
@@ -1357,13 +1405,13 @@
         <v>87</v>
       </c>
       <c r="B33" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C33" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D33" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
@@ -1371,13 +1419,13 @@
         <v>88</v>
       </c>
       <c r="B34" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C34" t="s">
         <v>89</v>
       </c>
       <c r="D34" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
@@ -1385,13 +1433,13 @@
         <v>90</v>
       </c>
       <c r="B35" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C35" t="s">
         <v>91</v>
       </c>
       <c r="D35" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
@@ -1399,16 +1447,16 @@
         <v>92</v>
       </c>
       <c r="B36" t="s">
-        <v>135</v>
+        <v>153</v>
       </c>
       <c r="C36" t="s">
         <v>93</v>
       </c>
       <c r="D36" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E36" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
@@ -1416,13 +1464,13 @@
         <v>94</v>
       </c>
       <c r="B37" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C37" t="s">
         <v>95</v>
       </c>
       <c r="D37" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
@@ -1430,13 +1478,13 @@
         <v>96</v>
       </c>
       <c r="B38" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C38" t="s">
         <v>97</v>
       </c>
       <c r="D38" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
@@ -1444,13 +1492,13 @@
         <v>51</v>
       </c>
       <c r="B39" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C39" t="s">
         <v>52</v>
       </c>
       <c r="D39" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
@@ -1458,13 +1506,13 @@
         <v>53</v>
       </c>
       <c r="B40" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C40" t="s">
         <v>54</v>
       </c>
       <c r="D40" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
@@ -1472,13 +1520,13 @@
         <v>55</v>
       </c>
       <c r="B41" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C41" t="s">
         <v>56</v>
       </c>
       <c r="D41" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
@@ -1486,16 +1534,16 @@
         <v>63</v>
       </c>
       <c r="B42" t="s">
-        <v>123</v>
+        <v>145</v>
       </c>
       <c r="C42" t="s">
         <v>64</v>
       </c>
       <c r="D42" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E42" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
@@ -1503,13 +1551,13 @@
         <v>65</v>
       </c>
       <c r="B43" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C43" t="s">
         <v>66</v>
       </c>
       <c r="D43" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
@@ -1517,16 +1565,16 @@
         <v>67</v>
       </c>
       <c r="B44" t="s">
-        <v>123</v>
+        <v>146</v>
       </c>
       <c r="C44" t="s">
         <v>68</v>
       </c>
       <c r="D44" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E44" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
@@ -1534,16 +1582,16 @@
         <v>69</v>
       </c>
       <c r="B45" t="s">
-        <v>123</v>
+        <v>147</v>
       </c>
       <c r="C45" t="s">
         <v>70</v>
       </c>
       <c r="D45" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E45" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
@@ -1551,13 +1599,13 @@
         <v>71</v>
       </c>
       <c r="B46" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C46" t="s">
         <v>72</v>
       </c>
       <c r="D46" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
@@ -1565,16 +1613,16 @@
         <v>73</v>
       </c>
       <c r="B47" t="s">
-        <v>123</v>
+        <v>148</v>
       </c>
       <c r="C47" t="s">
         <v>74</v>
       </c>
       <c r="D47" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E47" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
@@ -1582,13 +1630,13 @@
         <v>75</v>
       </c>
       <c r="B48" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C48" t="s">
         <v>76</v>
       </c>
       <c r="D48" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
@@ -1596,13 +1644,13 @@
         <v>77</v>
       </c>
       <c r="B49" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C49" t="s">
         <v>78</v>
       </c>
       <c r="D49" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
@@ -1610,13 +1658,13 @@
         <v>79</v>
       </c>
       <c r="B50" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C50" t="s">
         <v>80</v>
       </c>
       <c r="D50" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
@@ -1624,16 +1672,16 @@
         <v>8</v>
       </c>
       <c r="B51" t="s">
-        <v>120</v>
+        <v>149</v>
       </c>
       <c r="C51" t="s">
         <v>9</v>
       </c>
       <c r="D51" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E51" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
@@ -1641,16 +1689,16 @@
         <v>12</v>
       </c>
       <c r="B52" t="s">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="C52" t="s">
         <v>13</v>
       </c>
       <c r="D52" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E52" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
@@ -1658,13 +1706,13 @@
         <v>10</v>
       </c>
       <c r="B53" t="s">
-        <v>120</v>
+        <v>163</v>
       </c>
       <c r="C53" t="s">
         <v>11</v>
       </c>
       <c r="D53" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
@@ -1672,16 +1720,16 @@
         <v>14</v>
       </c>
       <c r="B54" t="s">
-        <v>121</v>
+        <v>152</v>
       </c>
       <c r="C54" t="s">
         <v>15</v>
       </c>
       <c r="D54" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E54" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
@@ -1689,16 +1737,16 @@
         <v>18</v>
       </c>
       <c r="B55" t="s">
-        <v>121</v>
+        <v>151</v>
       </c>
       <c r="C55" t="s">
         <v>19</v>
       </c>
       <c r="D55" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E55" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
@@ -1706,13 +1754,13 @@
         <v>16</v>
       </c>
       <c r="B56" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C56" t="s">
         <v>17</v>
       </c>
       <c r="D56" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
@@ -1720,16 +1768,16 @@
         <v>4</v>
       </c>
       <c r="B57" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="C57" t="s">
         <v>5</v>
       </c>
       <c r="D57" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E57" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
@@ -1737,16 +1785,16 @@
         <v>6</v>
       </c>
       <c r="B58" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="C58" t="s">
         <v>7</v>
       </c>
       <c r="D58" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E58" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -1902,7 +1950,7 @@
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>

--- a/HJA_sjSDM_paper/paper/Table S_Predictors.xlsx
+++ b/HJA_sjSDM_paper/paper/Table S_Predictors.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\UEA\gitHRepos\HJA_analyses_Kelpie\HJA_sjSDM_paper\paper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F50BEB1F-2AD4-454A-A284-892CF260E2A4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15EF1B20-E4B3-44D9-AE70-032BE077029B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="25017" yWindow="-118" windowWidth="25370" windowHeight="13759" xr2:uid="{1F5AF100-70DA-4190-8C9E-773A29E62371}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="166">
   <si>
     <t>be30</t>
   </si>
@@ -409,18 +409,12 @@
     <t>NDVI</t>
   </si>
   <si>
-    <t>HJA data</t>
-  </si>
-  <si>
     <t>Lidar - Canopy</t>
   </si>
   <si>
     <t>Lidar - topography</t>
   </si>
   <si>
-    <t>Landsat</t>
-  </si>
-  <si>
     <t>Log of vegetation cover based on the proportion of total returns at least 2 m above ground, for first returns (+0.001 prior to logging)</t>
   </si>
   <si>
@@ -530,6 +524,18 @@
   </si>
   <si>
     <t>Area logged (500m)</t>
+  </si>
+  <si>
+    <t>Anthropogenic</t>
+  </si>
+  <si>
+    <t>Topography</t>
+  </si>
+  <si>
+    <t>Landsat - annual</t>
+  </si>
+  <si>
+    <t>Landsat - bands</t>
   </si>
 </sst>
 </file>
@@ -892,8 +898,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17AF1E92-1A70-4317-8820-8C19077DC4C1}">
   <dimension ref="A1:E58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B54" sqref="B54"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
@@ -918,7 +924,7 @@
         <v>110</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -932,7 +938,7 @@
         <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -946,7 +952,7 @@
         <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -960,7 +966,7 @@
         <v>32</v>
       </c>
       <c r="D4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -968,16 +974,16 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C5" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E5" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -985,16 +991,16 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C6" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E6" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -1002,16 +1008,16 @@
         <v>22</v>
       </c>
       <c r="B7" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E7" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -1025,10 +1031,10 @@
         <v>34</v>
       </c>
       <c r="D8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E8" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -1042,7 +1048,7 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -1050,16 +1056,16 @@
         <v>27</v>
       </c>
       <c r="B10" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C10" t="s">
         <v>28</v>
       </c>
       <c r="D10" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E10" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -1073,7 +1079,7 @@
         <v>24</v>
       </c>
       <c r="D11" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
@@ -1087,10 +1093,10 @@
         <v>42</v>
       </c>
       <c r="D12" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E12" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
@@ -1104,10 +1110,10 @@
         <v>1</v>
       </c>
       <c r="D13" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E13" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
@@ -1121,10 +1127,10 @@
         <v>40</v>
       </c>
       <c r="D14" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E14" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
@@ -1138,7 +1144,7 @@
         <v>38</v>
       </c>
       <c r="D15" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
@@ -1146,16 +1152,16 @@
         <v>49</v>
       </c>
       <c r="B16" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C16" t="s">
         <v>50</v>
       </c>
       <c r="D16" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E16" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
@@ -1163,16 +1169,16 @@
         <v>45</v>
       </c>
       <c r="B17" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C17" t="s">
         <v>46</v>
       </c>
       <c r="D17" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E17" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
@@ -1180,13 +1186,13 @@
         <v>47</v>
       </c>
       <c r="B18" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C18" t="s">
         <v>48</v>
       </c>
       <c r="D18" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
@@ -1194,16 +1200,16 @@
         <v>35</v>
       </c>
       <c r="B19" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C19" t="s">
         <v>36</v>
       </c>
       <c r="D19" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E19" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
@@ -1211,16 +1217,16 @@
         <v>43</v>
       </c>
       <c r="B20" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C20" t="s">
         <v>44</v>
       </c>
       <c r="D20" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E20" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
@@ -1228,16 +1234,16 @@
         <v>98</v>
       </c>
       <c r="B21" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C21" t="s">
         <v>99</v>
       </c>
       <c r="D21" t="s">
-        <v>126</v>
+        <v>165</v>
       </c>
       <c r="E21" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
@@ -1245,13 +1251,13 @@
         <v>108</v>
       </c>
       <c r="B22" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C22" t="s">
         <v>109</v>
       </c>
       <c r="D22" t="s">
-        <v>126</v>
+        <v>165</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
@@ -1259,13 +1265,13 @@
         <v>100</v>
       </c>
       <c r="B23" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C23" t="s">
         <v>101</v>
       </c>
       <c r="D23" t="s">
-        <v>126</v>
+        <v>165</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
@@ -1273,13 +1279,13 @@
         <v>102</v>
       </c>
       <c r="B24" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C24" t="s">
         <v>103</v>
       </c>
       <c r="D24" t="s">
-        <v>126</v>
+        <v>165</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
@@ -1287,16 +1293,16 @@
         <v>104</v>
       </c>
       <c r="B25" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C25" t="s">
         <v>105</v>
       </c>
       <c r="D25" t="s">
-        <v>126</v>
+        <v>165</v>
       </c>
       <c r="E25" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
@@ -1304,13 +1310,13 @@
         <v>106</v>
       </c>
       <c r="B26" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C26" t="s">
         <v>107</v>
       </c>
       <c r="D26" t="s">
-        <v>126</v>
+        <v>165</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
@@ -1318,16 +1324,16 @@
         <v>57</v>
       </c>
       <c r="B27" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C27" t="s">
         <v>58</v>
       </c>
       <c r="D27" t="s">
-        <v>126</v>
+        <v>164</v>
       </c>
       <c r="E27" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
@@ -1335,13 +1341,13 @@
         <v>59</v>
       </c>
       <c r="B28" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C28" t="s">
         <v>60</v>
       </c>
       <c r="D28" t="s">
-        <v>126</v>
+        <v>164</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
@@ -1349,13 +1355,13 @@
         <v>61</v>
       </c>
       <c r="B29" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C29" t="s">
         <v>62</v>
       </c>
       <c r="D29" t="s">
-        <v>126</v>
+        <v>164</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
@@ -1363,13 +1369,13 @@
         <v>81</v>
       </c>
       <c r="B30" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C30" t="s">
         <v>82</v>
       </c>
       <c r="D30" t="s">
-        <v>126</v>
+        <v>164</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
@@ -1377,13 +1383,13 @@
         <v>83</v>
       </c>
       <c r="B31" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C31" t="s">
         <v>84</v>
       </c>
       <c r="D31" t="s">
-        <v>126</v>
+        <v>164</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
@@ -1391,13 +1397,13 @@
         <v>85</v>
       </c>
       <c r="B32" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C32" t="s">
         <v>86</v>
       </c>
       <c r="D32" t="s">
-        <v>126</v>
+        <v>164</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
@@ -1405,13 +1411,13 @@
         <v>87</v>
       </c>
       <c r="B33" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C33" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D33" t="s">
-        <v>126</v>
+        <v>164</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
@@ -1419,13 +1425,13 @@
         <v>88</v>
       </c>
       <c r="B34" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C34" t="s">
         <v>89</v>
       </c>
       <c r="D34" t="s">
-        <v>126</v>
+        <v>164</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
@@ -1433,13 +1439,13 @@
         <v>90</v>
       </c>
       <c r="B35" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C35" t="s">
         <v>91</v>
       </c>
       <c r="D35" t="s">
-        <v>126</v>
+        <v>164</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
@@ -1447,16 +1453,16 @@
         <v>92</v>
       </c>
       <c r="B36" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C36" t="s">
         <v>93</v>
       </c>
       <c r="D36" t="s">
-        <v>126</v>
+        <v>164</v>
       </c>
       <c r="E36" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
@@ -1464,13 +1470,13 @@
         <v>94</v>
       </c>
       <c r="B37" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C37" t="s">
         <v>95</v>
       </c>
       <c r="D37" t="s">
-        <v>126</v>
+        <v>164</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
@@ -1478,13 +1484,13 @@
         <v>96</v>
       </c>
       <c r="B38" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C38" t="s">
         <v>97</v>
       </c>
       <c r="D38" t="s">
-        <v>126</v>
+        <v>164</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
@@ -1492,13 +1498,13 @@
         <v>51</v>
       </c>
       <c r="B39" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C39" t="s">
         <v>52</v>
       </c>
       <c r="D39" t="s">
-        <v>126</v>
+        <v>164</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
@@ -1506,13 +1512,13 @@
         <v>53</v>
       </c>
       <c r="B40" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C40" t="s">
         <v>54</v>
       </c>
       <c r="D40" t="s">
-        <v>126</v>
+        <v>164</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
@@ -1520,13 +1526,13 @@
         <v>55</v>
       </c>
       <c r="B41" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C41" t="s">
         <v>56</v>
       </c>
       <c r="D41" t="s">
-        <v>126</v>
+        <v>164</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
@@ -1534,16 +1540,16 @@
         <v>63</v>
       </c>
       <c r="B42" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C42" t="s">
         <v>64</v>
       </c>
       <c r="D42" t="s">
-        <v>126</v>
+        <v>164</v>
       </c>
       <c r="E42" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
@@ -1557,7 +1563,7 @@
         <v>66</v>
       </c>
       <c r="D43" t="s">
-        <v>126</v>
+        <v>164</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
@@ -1565,16 +1571,16 @@
         <v>67</v>
       </c>
       <c r="B44" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C44" t="s">
         <v>68</v>
       </c>
       <c r="D44" t="s">
-        <v>126</v>
+        <v>164</v>
       </c>
       <c r="E44" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
@@ -1582,16 +1588,16 @@
         <v>69</v>
       </c>
       <c r="B45" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C45" t="s">
         <v>70</v>
       </c>
       <c r="D45" t="s">
-        <v>126</v>
+        <v>164</v>
       </c>
       <c r="E45" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
@@ -1605,7 +1611,7 @@
         <v>72</v>
       </c>
       <c r="D46" t="s">
-        <v>126</v>
+        <v>164</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
@@ -1613,16 +1619,16 @@
         <v>73</v>
       </c>
       <c r="B47" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C47" t="s">
         <v>74</v>
       </c>
       <c r="D47" t="s">
-        <v>126</v>
+        <v>164</v>
       </c>
       <c r="E47" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
@@ -1636,7 +1642,7 @@
         <v>76</v>
       </c>
       <c r="D48" t="s">
-        <v>126</v>
+        <v>164</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
@@ -1650,7 +1656,7 @@
         <v>78</v>
       </c>
       <c r="D49" t="s">
-        <v>126</v>
+        <v>164</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
@@ -1664,7 +1670,7 @@
         <v>80</v>
       </c>
       <c r="D50" t="s">
-        <v>126</v>
+        <v>164</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
@@ -1672,16 +1678,16 @@
         <v>8</v>
       </c>
       <c r="B51" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C51" t="s">
         <v>9</v>
       </c>
       <c r="D51" t="s">
-        <v>123</v>
+        <v>162</v>
       </c>
       <c r="E51" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
@@ -1689,16 +1695,16 @@
         <v>12</v>
       </c>
       <c r="B52" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C52" t="s">
         <v>13</v>
       </c>
       <c r="D52" t="s">
-        <v>123</v>
+        <v>162</v>
       </c>
       <c r="E52" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
@@ -1706,13 +1712,13 @@
         <v>10</v>
       </c>
       <c r="B53" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C53" t="s">
         <v>11</v>
       </c>
       <c r="D53" t="s">
-        <v>123</v>
+        <v>162</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
@@ -1720,16 +1726,16 @@
         <v>14</v>
       </c>
       <c r="B54" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C54" t="s">
         <v>15</v>
       </c>
       <c r="D54" t="s">
-        <v>123</v>
+        <v>162</v>
       </c>
       <c r="E54" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
@@ -1737,16 +1743,16 @@
         <v>18</v>
       </c>
       <c r="B55" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C55" t="s">
         <v>19</v>
       </c>
       <c r="D55" t="s">
-        <v>123</v>
+        <v>162</v>
       </c>
       <c r="E55" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
@@ -1760,7 +1766,7 @@
         <v>17</v>
       </c>
       <c r="D56" t="s">
-        <v>123</v>
+        <v>162</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
@@ -1768,16 +1774,16 @@
         <v>4</v>
       </c>
       <c r="B57" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C57" t="s">
         <v>5</v>
       </c>
       <c r="D57" t="s">
-        <v>123</v>
+        <v>162</v>
       </c>
       <c r="E57" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
@@ -1785,16 +1791,16 @@
         <v>6</v>
       </c>
       <c r="B58" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C58" t="s">
         <v>7</v>
       </c>
       <c r="D58" t="s">
-        <v>123</v>
+        <v>163</v>
       </c>
       <c r="E58" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
   </sheetData>
@@ -1950,7 +1956,7 @@
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
   </sheetData>

--- a/HJA_sjSDM_paper/paper/Table S_Predictors.xlsx
+++ b/HJA_sjSDM_paper/paper/Table S_Predictors.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\UEA\gitHRepos\HJA_analyses_Kelpie\HJA_sjSDM_paper\paper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15EF1B20-E4B3-44D9-AE70-032BE077029B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A3158B3-FB9C-438E-BC74-28410D035BD9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25017" yWindow="-118" windowWidth="25370" windowHeight="13759" xr2:uid="{1F5AF100-70DA-4190-8C9E-773A29E62371}"/>
+    <workbookView xWindow="29913" yWindow="1152" windowWidth="18851" windowHeight="9844" xr2:uid="{1F5AF100-70DA-4190-8C9E-773A29E62371}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="167">
   <si>
     <t>be30</t>
   </si>
@@ -412,9 +412,6 @@
     <t>Lidar - Canopy</t>
   </si>
   <si>
-    <t>Lidar - topography</t>
-  </si>
-  <si>
     <t>Log of vegetation cover based on the proportion of total returns at least 2 m above ground, for first returns (+0.001 prior to logging)</t>
   </si>
   <si>
@@ -536,6 +533,12 @@
   </si>
   <si>
     <t>Landsat - bands</t>
+  </si>
+  <si>
+    <t>Inside or outside the boundaris of HJ Andrews Experimental Forest, Oregon, USA</t>
+  </si>
+  <si>
+    <t>HJA</t>
   </si>
 </sst>
 </file>
@@ -896,10 +899,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17AF1E92-1A70-4317-8820-8C19077DC4C1}">
-  <dimension ref="A1:E58"/>
+  <dimension ref="A1:E59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="B59" sqref="B59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
@@ -924,7 +927,7 @@
         <v>110</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -974,16 +977,16 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D5" t="s">
         <v>123</v>
       </c>
       <c r="E5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -991,16 +994,16 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D6" t="s">
         <v>123</v>
       </c>
       <c r="E6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -1008,16 +1011,16 @@
         <v>22</v>
       </c>
       <c r="B7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D7" t="s">
         <v>123</v>
       </c>
       <c r="E7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -1034,7 +1037,7 @@
         <v>123</v>
       </c>
       <c r="E8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -1056,7 +1059,7 @@
         <v>27</v>
       </c>
       <c r="B10" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C10" t="s">
         <v>28</v>
@@ -1065,7 +1068,7 @@
         <v>123</v>
       </c>
       <c r="E10" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -1093,10 +1096,10 @@
         <v>42</v>
       </c>
       <c r="D12" t="s">
-        <v>124</v>
+        <v>162</v>
       </c>
       <c r="E12" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
@@ -1110,10 +1113,10 @@
         <v>1</v>
       </c>
       <c r="D13" t="s">
-        <v>124</v>
+        <v>162</v>
       </c>
       <c r="E13" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
@@ -1127,10 +1130,10 @@
         <v>40</v>
       </c>
       <c r="D14" t="s">
-        <v>124</v>
+        <v>162</v>
       </c>
       <c r="E14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
@@ -1144,7 +1147,7 @@
         <v>38</v>
       </c>
       <c r="D15" t="s">
-        <v>124</v>
+        <v>162</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
@@ -1152,16 +1155,16 @@
         <v>49</v>
       </c>
       <c r="B16" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C16" t="s">
         <v>50</v>
       </c>
       <c r="D16" t="s">
-        <v>124</v>
+        <v>162</v>
       </c>
       <c r="E16" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
@@ -1169,16 +1172,16 @@
         <v>45</v>
       </c>
       <c r="B17" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C17" t="s">
         <v>46</v>
       </c>
       <c r="D17" t="s">
-        <v>124</v>
+        <v>162</v>
       </c>
       <c r="E17" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
@@ -1186,13 +1189,13 @@
         <v>47</v>
       </c>
       <c r="B18" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C18" t="s">
         <v>48</v>
       </c>
       <c r="D18" t="s">
-        <v>124</v>
+        <v>162</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
@@ -1200,16 +1203,16 @@
         <v>35</v>
       </c>
       <c r="B19" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C19" t="s">
         <v>36</v>
       </c>
       <c r="D19" t="s">
-        <v>124</v>
+        <v>162</v>
       </c>
       <c r="E19" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
@@ -1217,16 +1220,16 @@
         <v>43</v>
       </c>
       <c r="B20" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C20" t="s">
         <v>44</v>
       </c>
       <c r="D20" t="s">
-        <v>124</v>
+        <v>162</v>
       </c>
       <c r="E20" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
@@ -1234,16 +1237,16 @@
         <v>98</v>
       </c>
       <c r="B21" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C21" t="s">
         <v>99</v>
       </c>
       <c r="D21" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E21" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
@@ -1251,13 +1254,13 @@
         <v>108</v>
       </c>
       <c r="B22" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C22" t="s">
         <v>109</v>
       </c>
       <c r="D22" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
@@ -1265,13 +1268,13 @@
         <v>100</v>
       </c>
       <c r="B23" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C23" t="s">
         <v>101</v>
       </c>
       <c r="D23" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
@@ -1279,13 +1282,13 @@
         <v>102</v>
       </c>
       <c r="B24" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C24" t="s">
         <v>103</v>
       </c>
       <c r="D24" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
@@ -1293,16 +1296,16 @@
         <v>104</v>
       </c>
       <c r="B25" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C25" t="s">
         <v>105</v>
       </c>
       <c r="D25" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E25" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
@@ -1310,13 +1313,13 @@
         <v>106</v>
       </c>
       <c r="B26" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C26" t="s">
         <v>107</v>
       </c>
       <c r="D26" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
@@ -1324,16 +1327,16 @@
         <v>57</v>
       </c>
       <c r="B27" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C27" t="s">
         <v>58</v>
       </c>
       <c r="D27" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E27" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
@@ -1341,13 +1344,13 @@
         <v>59</v>
       </c>
       <c r="B28" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C28" t="s">
         <v>60</v>
       </c>
       <c r="D28" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
@@ -1355,13 +1358,13 @@
         <v>61</v>
       </c>
       <c r="B29" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C29" t="s">
         <v>62</v>
       </c>
       <c r="D29" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
@@ -1369,13 +1372,13 @@
         <v>81</v>
       </c>
       <c r="B30" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C30" t="s">
         <v>82</v>
       </c>
       <c r="D30" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
@@ -1383,13 +1386,13 @@
         <v>83</v>
       </c>
       <c r="B31" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C31" t="s">
         <v>84</v>
       </c>
       <c r="D31" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
@@ -1397,13 +1400,13 @@
         <v>85</v>
       </c>
       <c r="B32" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C32" t="s">
         <v>86</v>
       </c>
       <c r="D32" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
@@ -1411,13 +1414,13 @@
         <v>87</v>
       </c>
       <c r="B33" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C33" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D33" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
@@ -1425,13 +1428,13 @@
         <v>88</v>
       </c>
       <c r="B34" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C34" t="s">
         <v>89</v>
       </c>
       <c r="D34" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
@@ -1439,13 +1442,13 @@
         <v>90</v>
       </c>
       <c r="B35" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C35" t="s">
         <v>91</v>
       </c>
       <c r="D35" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
@@ -1453,16 +1456,16 @@
         <v>92</v>
       </c>
       <c r="B36" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C36" t="s">
         <v>93</v>
       </c>
       <c r="D36" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E36" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
@@ -1470,13 +1473,13 @@
         <v>94</v>
       </c>
       <c r="B37" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C37" t="s">
         <v>95</v>
       </c>
       <c r="D37" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
@@ -1484,13 +1487,13 @@
         <v>96</v>
       </c>
       <c r="B38" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C38" t="s">
         <v>97</v>
       </c>
       <c r="D38" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
@@ -1498,13 +1501,13 @@
         <v>51</v>
       </c>
       <c r="B39" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C39" t="s">
         <v>52</v>
       </c>
       <c r="D39" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
@@ -1512,13 +1515,13 @@
         <v>53</v>
       </c>
       <c r="B40" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C40" t="s">
         <v>54</v>
       </c>
       <c r="D40" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
@@ -1526,13 +1529,13 @@
         <v>55</v>
       </c>
       <c r="B41" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C41" t="s">
         <v>56</v>
       </c>
       <c r="D41" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
@@ -1540,16 +1543,16 @@
         <v>63</v>
       </c>
       <c r="B42" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C42" t="s">
         <v>64</v>
       </c>
       <c r="D42" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E42" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
@@ -1563,7 +1566,7 @@
         <v>66</v>
       </c>
       <c r="D43" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
@@ -1571,16 +1574,16 @@
         <v>67</v>
       </c>
       <c r="B44" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C44" t="s">
         <v>68</v>
       </c>
       <c r="D44" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E44" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
@@ -1588,16 +1591,16 @@
         <v>69</v>
       </c>
       <c r="B45" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C45" t="s">
         <v>70</v>
       </c>
       <c r="D45" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E45" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
@@ -1611,7 +1614,7 @@
         <v>72</v>
       </c>
       <c r="D46" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
@@ -1619,16 +1622,16 @@
         <v>73</v>
       </c>
       <c r="B47" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C47" t="s">
         <v>74</v>
       </c>
       <c r="D47" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E47" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
@@ -1642,7 +1645,7 @@
         <v>76</v>
       </c>
       <c r="D48" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
@@ -1656,7 +1659,7 @@
         <v>78</v>
       </c>
       <c r="D49" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
@@ -1670,7 +1673,7 @@
         <v>80</v>
       </c>
       <c r="D50" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
@@ -1678,16 +1681,16 @@
         <v>8</v>
       </c>
       <c r="B51" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C51" t="s">
         <v>9</v>
       </c>
       <c r="D51" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E51" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
@@ -1695,16 +1698,16 @@
         <v>12</v>
       </c>
       <c r="B52" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C52" t="s">
         <v>13</v>
       </c>
       <c r="D52" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E52" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
@@ -1712,13 +1715,13 @@
         <v>10</v>
       </c>
       <c r="B53" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C53" t="s">
         <v>11</v>
       </c>
       <c r="D53" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
@@ -1726,16 +1729,16 @@
         <v>14</v>
       </c>
       <c r="B54" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C54" t="s">
         <v>15</v>
       </c>
       <c r="D54" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E54" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
@@ -1743,16 +1746,16 @@
         <v>18</v>
       </c>
       <c r="B55" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C55" t="s">
         <v>19</v>
       </c>
       <c r="D55" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E55" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
@@ -1766,7 +1769,7 @@
         <v>17</v>
       </c>
       <c r="D56" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
@@ -1774,16 +1777,16 @@
         <v>4</v>
       </c>
       <c r="B57" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C57" t="s">
         <v>5</v>
       </c>
       <c r="D57" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E57" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
@@ -1791,16 +1794,33 @@
         <v>6</v>
       </c>
       <c r="B58" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C58" t="s">
         <v>7</v>
       </c>
       <c r="D58" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E58" t="s">
-        <v>138</v>
+        <v>137</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>136</v>
+      </c>
+      <c r="B59" t="s">
+        <v>166</v>
+      </c>
+      <c r="C59" t="s">
+        <v>165</v>
+      </c>
+      <c r="D59" t="s">
+        <v>161</v>
+      </c>
+      <c r="E59" t="s">
+        <v>137</v>
       </c>
     </row>
   </sheetData>
@@ -1956,7 +1976,7 @@
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>

--- a/HJA_sjSDM_paper/paper/Table S_Predictors.xlsx
+++ b/HJA_sjSDM_paper/paper/Table S_Predictors.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\UEA\gitHRepos\HJA_analyses_Kelpie\HJA_sjSDM_paper\paper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A3158B3-FB9C-438E-BC74-28410D035BD9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF02A448-DCD0-479C-AA7D-78FF9DB97BCA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29913" yWindow="1152" windowWidth="18851" windowHeight="9844" xr2:uid="{1F5AF100-70DA-4190-8C9E-773A29E62371}"/>
+    <workbookView xWindow="25017" yWindow="-118" windowWidth="25370" windowHeight="13759" xr2:uid="{1F5AF100-70DA-4190-8C9E-773A29E62371}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="169">
   <si>
     <t>be30</t>
   </si>
@@ -539,6 +539,12 @@
   </si>
   <si>
     <t>HJA</t>
+  </si>
+  <si>
+    <t>Canopy height (25th percentile)</t>
+  </si>
+  <si>
+    <t>Canopy height (95th percentile)</t>
   </si>
 </sst>
 </file>
@@ -901,13 +907,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17AF1E92-1A70-4317-8820-8C19077DC4C1}">
   <dimension ref="A1:E59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="B59" sqref="B59"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.21875" customWidth="1"/>
+    <col min="1" max="1" width="25.5546875" customWidth="1"/>
     <col min="2" max="2" width="37.21875" customWidth="1"/>
     <col min="3" max="3" width="73.6640625" customWidth="1"/>
     <col min="4" max="4" width="18" customWidth="1"/>
@@ -949,7 +955,7 @@
         <v>29</v>
       </c>
       <c r="B3" t="s">
-        <v>113</v>
+        <v>167</v>
       </c>
       <c r="C3" t="s">
         <v>30</v>
@@ -963,7 +969,7 @@
         <v>31</v>
       </c>
       <c r="B4" t="s">
-        <v>113</v>
+        <v>168</v>
       </c>
       <c r="C4" t="s">
         <v>32</v>
@@ -1831,6 +1837,7 @@
     <sortCondition ref="A2:A20"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/HJA_sjSDM_paper/paper/Table S_Predictors.xlsx
+++ b/HJA_sjSDM_paper/paper/Table S_Predictors.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\UEA\gitHRepos\HJA_analyses_Kelpie\HJA_sjSDM_paper\paper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF02A448-DCD0-479C-AA7D-78FF9DB97BCA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC54D191-30AE-4349-9BD7-539B1B0BDB9D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="25017" yWindow="-118" windowWidth="25370" windowHeight="13759" xr2:uid="{1F5AF100-70DA-4190-8C9E-773A29E62371}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="185">
   <si>
     <t>be30</t>
   </si>
@@ -196,9 +196,6 @@
     <t>ndmi_stdDev_r100</t>
   </si>
   <si>
-    <t>standard deviation of annual NDMI, averaged over 100m radius = In Landsat 8, NDMI = (Band 5 – Band 6) / (Band 5 + Band 6)</t>
-  </si>
-  <si>
     <t>ndmi_stdDev_r250</t>
   </si>
   <si>
@@ -214,9 +211,6 @@
     <t>nbr_stdDev_r100</t>
   </si>
   <si>
-    <t>standard deviation of annual NBR, averaged over 500m radius  = NBR = in Landsat 8 (Band 5 – Band 7) / (Band 5 + Band 7)</t>
-  </si>
-  <si>
     <t>nbr_stdDev_r250</t>
   </si>
   <si>
@@ -232,21 +226,12 @@
     <t>ndvi_p5_r100</t>
   </si>
   <si>
-    <t>5% percentile of annual NDVI averaged over 100m radius.  Landsat 8, NDVI = (Band 5 – Band 4) / (Band 5 + Band 4).</t>
-  </si>
-  <si>
     <t>ndvi_p5_r250</t>
   </si>
   <si>
-    <t>5% percentile of annual NDVI averaged over 250m radius.  Landsat 8, NDVI = (Band 5 – Band 4) / (Band 5 + Band 4).</t>
-  </si>
-  <si>
     <t>ndvi_p5_r500</t>
   </si>
   <si>
-    <t>5% percentile of annual NDVI averaged over 500m radius.  Landsat 8, NDVI = (Band 5 – Band 4) / (Band 5 + Band 4).</t>
-  </si>
-  <si>
     <t>ndvi_p50_r100</t>
   </si>
   <si>
@@ -385,9 +370,6 @@
     <t>Rumple index</t>
   </si>
   <si>
-    <t>Vegetation &gt; 4m</t>
-  </si>
-  <si>
     <t>Northness</t>
   </si>
   <si>
@@ -400,15 +382,9 @@
     <t>Slope</t>
   </si>
   <si>
-    <t>Area logged within last 40 years</t>
-  </si>
-  <si>
     <t>PredictorCode</t>
   </si>
   <si>
-    <t>NDVI</t>
-  </si>
-  <si>
     <t>Lidar - Canopy</t>
   </si>
   <si>
@@ -424,21 +400,9 @@
     <t>median NDMI over 100 m radius</t>
   </si>
   <si>
-    <t>Topographic roughness index</t>
-  </si>
-  <si>
     <t>Topographic Wetness Index</t>
   </si>
   <si>
-    <t>Topographic Position Index</t>
-  </si>
-  <si>
-    <t>NDMI</t>
-  </si>
-  <si>
-    <t>NBR</t>
-  </si>
-  <si>
     <t>Distance to stream</t>
   </si>
   <si>
@@ -466,12 +430,6 @@
     <t>Landsat B5</t>
   </si>
   <si>
-    <t>min NDVI (100m)</t>
-  </si>
-  <si>
-    <t>min NDVI (500m)</t>
-  </si>
-  <si>
     <t>median NDVI (100m)</t>
   </si>
   <si>
@@ -490,9 +448,6 @@
     <t>Area logged &lt; 40 years (1 km)</t>
   </si>
   <si>
-    <t>max NDMI (100m)</t>
-  </si>
-  <si>
     <t>std dev NBR (100m)</t>
   </si>
   <si>
@@ -538,13 +493,106 @@
     <t>Inside or outside the boundaris of HJ Andrews Experimental Forest, Oregon, USA</t>
   </si>
   <si>
-    <t>HJA</t>
-  </si>
-  <si>
     <t>Canopy height (25th percentile)</t>
   </si>
   <si>
     <t>Canopy height (95th percentile)</t>
+  </si>
+  <si>
+    <t>Topographic Position Index (500m)</t>
+  </si>
+  <si>
+    <t>Topographic Roughness Index</t>
+  </si>
+  <si>
+    <t>Vegetation &gt; 4m (250m)</t>
+  </si>
+  <si>
+    <t>Vegetation &gt; 4m (30m)</t>
+  </si>
+  <si>
+    <t>std dev NBR (250m)</t>
+  </si>
+  <si>
+    <t>std dev NBR (500m)</t>
+  </si>
+  <si>
+    <t>5 percentile NDMI (100m)</t>
+  </si>
+  <si>
+    <t>median NDMI (100m)</t>
+  </si>
+  <si>
+    <t>5 percentile NDMI (250m)</t>
+  </si>
+  <si>
+    <t>median NDMI (500m)</t>
+  </si>
+  <si>
+    <t>median NDMI (250m)</t>
+  </si>
+  <si>
+    <t>5 percentile NDMI (500m)</t>
+  </si>
+  <si>
+    <t>95 percentile NDMI (100m)</t>
+  </si>
+  <si>
+    <t>95 percentile NDMI (250m)</t>
+  </si>
+  <si>
+    <t>95 percentile NDMI (500m)</t>
+  </si>
+  <si>
+    <t>std dev NDMI (100m)</t>
+  </si>
+  <si>
+    <t>std dev NDMI (250m)</t>
+  </si>
+  <si>
+    <t>std dev NDMI (500m)</t>
+  </si>
+  <si>
+    <t>5 percentile NDVI (100m)</t>
+  </si>
+  <si>
+    <t>5 percentile NDVI (250m)</t>
+  </si>
+  <si>
+    <t>5 percentile NDVI (500m)</t>
+  </si>
+  <si>
+    <t>median NDVI (250m)</t>
+  </si>
+  <si>
+    <t>95 percentile NDVI (100m)</t>
+  </si>
+  <si>
+    <t>95 percentile NDVI (250m)</t>
+  </si>
+  <si>
+    <t>95 percentile NDVI (500m)</t>
+  </si>
+  <si>
+    <t>Area logged &lt; 40 years (500m)</t>
+  </si>
+  <si>
+    <t>HJA boundary</t>
+  </si>
+  <si>
+    <t>standard deviation of annual NDMI, averaged over 100m radius [Landsat 8, NDMI = (Band 5 – Band 6) / (Band 5 + Band 6)]</t>
+  </si>
+  <si>
+    <t>standard deviation of annual NBR, averaged over 500m radius [Landsat 8, NBR = (Band 5 – Band 7) / (Band 5 + Band 7)]</t>
+  </si>
+  <si>
+    <t>5% percentile of annual NDVI averaged over 100m radius [Landsat 8, NDVI = (Band 5 – Band 4) / (Band 5 + Band 4)]</t>
+  </si>
+  <si>
+    <t>5% percentile of annual NDVI averaged over 250m radius</t>
+  </si>
+  <si>
+    <t>5% percentile of annual NDVI averaged over 500m radius</t>
   </si>
 </sst>
 </file>
@@ -907,8 +955,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17AF1E92-1A70-4317-8820-8C19077DC4C1}">
   <dimension ref="A1:E59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="E59" sqref="A1:E59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
@@ -921,19 +969,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -941,13 +989,13 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="C2" t="s">
         <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -955,13 +1003,13 @@
         <v>29</v>
       </c>
       <c r="B3" t="s">
-        <v>167</v>
+        <v>151</v>
       </c>
       <c r="C3" t="s">
         <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -969,13 +1017,13 @@
         <v>31</v>
       </c>
       <c r="B4" t="s">
-        <v>168</v>
+        <v>152</v>
       </c>
       <c r="C4" t="s">
         <v>32</v>
       </c>
       <c r="D4" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -983,16 +1031,16 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>153</v>
+        <v>138</v>
       </c>
       <c r="C5" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="D5" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="E5" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -1000,16 +1048,16 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
       <c r="C6" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="D6" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="E6" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -1017,16 +1065,16 @@
         <v>22</v>
       </c>
       <c r="B7" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="C7" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="D7" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="E7" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -1034,16 +1082,16 @@
         <v>33</v>
       </c>
       <c r="B8" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="C8" t="s">
         <v>34</v>
       </c>
       <c r="D8" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="E8" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -1051,13 +1099,13 @@
         <v>25</v>
       </c>
       <c r="B9" t="s">
-        <v>115</v>
+        <v>155</v>
       </c>
       <c r="C9" t="s">
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -1065,16 +1113,16 @@
         <v>27</v>
       </c>
       <c r="B10" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="C10" t="s">
         <v>28</v>
       </c>
       <c r="D10" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="E10" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -1082,13 +1130,13 @@
         <v>23</v>
       </c>
       <c r="B11" t="s">
-        <v>115</v>
+        <v>156</v>
       </c>
       <c r="C11" t="s">
         <v>24</v>
       </c>
       <c r="D11" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
@@ -1096,16 +1144,16 @@
         <v>41</v>
       </c>
       <c r="B12" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="C12" t="s">
         <v>42</v>
       </c>
       <c r="D12" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
       <c r="E12" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
@@ -1113,16 +1161,16 @@
         <v>0</v>
       </c>
       <c r="B13" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="C13" t="s">
         <v>1</v>
       </c>
       <c r="D13" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
       <c r="E13" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
@@ -1130,16 +1178,16 @@
         <v>39</v>
       </c>
       <c r="B14" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="C14" t="s">
         <v>40</v>
       </c>
       <c r="D14" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
       <c r="E14" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
@@ -1147,13 +1195,13 @@
         <v>37</v>
       </c>
       <c r="B15" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="C15" t="s">
         <v>38</v>
       </c>
       <c r="D15" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
@@ -1161,16 +1209,16 @@
         <v>49</v>
       </c>
       <c r="B16" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="C16" t="s">
         <v>50</v>
       </c>
       <c r="D16" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
       <c r="E16" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
@@ -1178,16 +1226,16 @@
         <v>45</v>
       </c>
       <c r="B17" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="C17" t="s">
         <v>46</v>
       </c>
       <c r="D17" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
       <c r="E17" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
@@ -1195,13 +1243,13 @@
         <v>47</v>
       </c>
       <c r="B18" t="s">
-        <v>130</v>
+        <v>153</v>
       </c>
       <c r="C18" t="s">
         <v>48</v>
       </c>
       <c r="D18" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
@@ -1209,16 +1257,16 @@
         <v>35</v>
       </c>
       <c r="B19" t="s">
-        <v>128</v>
+        <v>154</v>
       </c>
       <c r="C19" t="s">
         <v>36</v>
       </c>
       <c r="D19" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
       <c r="E19" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
@@ -1226,280 +1274,280 @@
         <v>43</v>
       </c>
       <c r="B20" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="C20" t="s">
         <v>44</v>
       </c>
       <c r="D20" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
       <c r="E20" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="B21" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="C21" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="D21" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
       <c r="E21" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="B22" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="C22" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="D22" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="B23" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="C23" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="D23" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="B24" t="s">
-        <v>158</v>
+        <v>143</v>
       </c>
       <c r="C24" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="D24" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="B25" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="C25" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="D25" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
       <c r="E25" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="B26" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
       <c r="C26" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="D26" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B27" t="s">
-        <v>151</v>
+        <v>136</v>
       </c>
       <c r="C27" t="s">
-        <v>58</v>
+        <v>181</v>
       </c>
       <c r="D27" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="E27" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B28" t="s">
-        <v>132</v>
+        <v>157</v>
       </c>
       <c r="C28" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D28" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B29" t="s">
-        <v>132</v>
+        <v>158</v>
       </c>
       <c r="C29" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D29" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B30" t="s">
-        <v>131</v>
+        <v>159</v>
       </c>
       <c r="C30" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="D30" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="B31" t="s">
-        <v>131</v>
+        <v>161</v>
       </c>
       <c r="C31" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="D31" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B32" t="s">
-        <v>131</v>
+        <v>164</v>
       </c>
       <c r="C32" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="D32" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="B33" t="s">
-        <v>131</v>
+        <v>160</v>
       </c>
       <c r="C33" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="D33" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="B34" t="s">
-        <v>131</v>
+        <v>163</v>
       </c>
       <c r="C34" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="D34" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="B35" t="s">
-        <v>131</v>
+        <v>162</v>
       </c>
       <c r="C35" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="D35" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="B36" t="s">
-        <v>150</v>
+        <v>165</v>
       </c>
       <c r="C36" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="D36" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="E36" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="B37" t="s">
-        <v>131</v>
+        <v>166</v>
       </c>
       <c r="C37" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="D37" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="B38" t="s">
-        <v>131</v>
+        <v>167</v>
       </c>
       <c r="C38" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="D38" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
@@ -1507,179 +1555,179 @@
         <v>51</v>
       </c>
       <c r="B39" t="s">
-        <v>131</v>
+        <v>168</v>
       </c>
       <c r="C39" t="s">
-        <v>52</v>
+        <v>180</v>
       </c>
       <c r="D39" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
+        <v>52</v>
+      </c>
+      <c r="B40" t="s">
+        <v>169</v>
+      </c>
+      <c r="C40" t="s">
         <v>53</v>
       </c>
-      <c r="B40" t="s">
-        <v>131</v>
-      </c>
-      <c r="C40" t="s">
-        <v>54</v>
-      </c>
       <c r="D40" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
+        <v>54</v>
+      </c>
+      <c r="B41" t="s">
+        <v>170</v>
+      </c>
+      <c r="C41" t="s">
         <v>55</v>
       </c>
-      <c r="B41" t="s">
-        <v>131</v>
-      </c>
-      <c r="C41" t="s">
-        <v>56</v>
-      </c>
       <c r="D41" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B42" t="s">
-        <v>142</v>
+        <v>171</v>
       </c>
       <c r="C42" t="s">
-        <v>64</v>
+        <v>182</v>
       </c>
       <c r="D42" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="E42" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B43" t="s">
-        <v>122</v>
+        <v>172</v>
       </c>
       <c r="C43" t="s">
-        <v>66</v>
+        <v>183</v>
       </c>
       <c r="D43" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B44" t="s">
-        <v>143</v>
+        <v>173</v>
       </c>
       <c r="C44" t="s">
-        <v>68</v>
+        <v>184</v>
       </c>
       <c r="D44" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="E44" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B45" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
       <c r="C45" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="D45" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="E45" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B46" t="s">
-        <v>122</v>
+        <v>174</v>
       </c>
       <c r="C46" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="D46" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="B47" t="s">
-        <v>145</v>
+        <v>131</v>
       </c>
       <c r="C47" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="D47" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="E47" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B48" t="s">
-        <v>122</v>
+        <v>175</v>
       </c>
       <c r="C48" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="D48" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B49" t="s">
-        <v>122</v>
+        <v>176</v>
       </c>
       <c r="C49" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="D49" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="B50" t="s">
-        <v>122</v>
+        <v>177</v>
       </c>
       <c r="C50" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="D50" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
@@ -1687,16 +1735,16 @@
         <v>8</v>
       </c>
       <c r="B51" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="C51" t="s">
         <v>9</v>
       </c>
       <c r="D51" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
       <c r="E51" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
@@ -1704,16 +1752,16 @@
         <v>12</v>
       </c>
       <c r="B52" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="C52" t="s">
         <v>13</v>
       </c>
       <c r="D52" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
       <c r="E52" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
@@ -1721,13 +1769,13 @@
         <v>10</v>
       </c>
       <c r="B53" t="s">
-        <v>160</v>
+        <v>145</v>
       </c>
       <c r="C53" t="s">
         <v>11</v>
       </c>
       <c r="D53" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
@@ -1735,16 +1783,16 @@
         <v>14</v>
       </c>
       <c r="B54" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
       <c r="C54" t="s">
         <v>15</v>
       </c>
       <c r="D54" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
       <c r="E54" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
@@ -1752,16 +1800,16 @@
         <v>18</v>
       </c>
       <c r="B55" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="C55" t="s">
         <v>19</v>
       </c>
       <c r="D55" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
       <c r="E55" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
@@ -1769,13 +1817,13 @@
         <v>16</v>
       </c>
       <c r="B56" t="s">
-        <v>120</v>
+        <v>178</v>
       </c>
       <c r="C56" t="s">
         <v>17</v>
       </c>
       <c r="D56" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
@@ -1783,16 +1831,16 @@
         <v>4</v>
       </c>
       <c r="B57" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="C57" t="s">
         <v>5</v>
       </c>
       <c r="D57" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
       <c r="E57" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
@@ -1800,33 +1848,33 @@
         <v>6</v>
       </c>
       <c r="B58" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="C58" t="s">
         <v>7</v>
       </c>
       <c r="D58" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
       <c r="E58" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="B59" t="s">
-        <v>166</v>
+        <v>179</v>
       </c>
       <c r="C59" t="s">
-        <v>165</v>
+        <v>150</v>
       </c>
       <c r="D59" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
       <c r="E59" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -1918,42 +1966,42 @@
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.3">
@@ -1983,7 +2031,7 @@
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>

--- a/HJA_sjSDM_paper/paper/Table S_Predictors.xlsx
+++ b/HJA_sjSDM_paper/paper/Table S_Predictors.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\UEA\gitHRepos\HJA_analyses_Kelpie\HJA_sjSDM_paper\paper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC54D191-30AE-4349-9BD7-539B1B0BDB9D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D861CEBB-E1A7-4C69-8F6C-B6D94C3C1FF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25017" yWindow="-118" windowWidth="25370" windowHeight="13759" xr2:uid="{1F5AF100-70DA-4190-8C9E-773A29E62371}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1F5AF100-70DA-4190-8C9E-773A29E62371}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="193">
   <si>
     <t>be30</t>
   </si>
@@ -593,6 +593,30 @@
   </si>
   <si>
     <t>5% percentile of annual NDVI averaged over 500m radius</t>
+  </si>
+  <si>
+    <t>TPI (Topographic Position Index) is the difference between the value of a central cell and the mean value of its surrounding cells within 1 km window. - raster package</t>
+  </si>
+  <si>
+    <t>TPI (Topographic Position Index) is the difference between the value of the central cell and the mean value of its surrounding cells within 250m window. - raster package</t>
+  </si>
+  <si>
+    <t>TPI (Topographic Position Index) is the difference between the value of the central cell and the mean value of its surrounding cells within 500 m window - raster package</t>
+  </si>
+  <si>
+    <t>topographic wetness index represents a theoretical estimation of the accumulation of flow at any point (ie depends on upstream catchment area). Formula: ln(a/tan(beta)); (a = upslope contributing area per unit contour; tan(beta) = local slope angle)</t>
+  </si>
+  <si>
+    <t>NBR: Normalised Burn Ratio - identify burn areas and severity of burn</t>
+  </si>
+  <si>
+    <t>NDMI: Normalised Difference Moisture Index, for vegetation water content</t>
+  </si>
+  <si>
+    <t>From Oregon shapefile of logged areas over last ~ 100 years</t>
+  </si>
+  <si>
+    <t>Notes</t>
   </si>
 </sst>
 </file>
@@ -953,13 +977,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17AF1E92-1A70-4317-8820-8C19077DC4C1}">
-  <dimension ref="A1:E59"/>
+  <dimension ref="A1:F59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="E59" sqref="A1:E59"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="25.5546875" customWidth="1"/>
     <col min="2" max="2" width="37.21875" customWidth="1"/>
@@ -967,7 +991,7 @@
     <col min="4" max="4" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>114</v>
       </c>
@@ -983,8 +1007,11 @@
       <c r="E1" s="1" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F1" s="1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -998,7 +1025,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>29</v>
       </c>
@@ -1012,7 +1039,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>31</v>
       </c>
@@ -1026,7 +1053,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -1043,7 +1070,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -1060,7 +1087,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>22</v>
       </c>
@@ -1077,7 +1104,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>33</v>
       </c>
@@ -1094,7 +1121,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>25</v>
       </c>
@@ -1108,7 +1135,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>27</v>
       </c>
@@ -1125,7 +1152,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>23</v>
       </c>
@@ -1139,7 +1166,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>41</v>
       </c>
@@ -1156,7 +1183,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>0</v>
       </c>
@@ -1173,7 +1200,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>39</v>
       </c>
@@ -1190,7 +1217,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>37</v>
       </c>
@@ -1204,7 +1231,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>49</v>
       </c>
@@ -1220,8 +1247,11 @@
       <c r="E16" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F16" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>45</v>
       </c>
@@ -1237,8 +1267,11 @@
       <c r="E17" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F17" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>47</v>
       </c>
@@ -1251,8 +1284,11 @@
       <c r="D18" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F18" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>35</v>
       </c>
@@ -1269,7 +1305,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>43</v>
       </c>
@@ -1285,8 +1321,11 @@
       <c r="E20" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F20" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>93</v>
       </c>
@@ -1303,7 +1342,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>103</v>
       </c>
@@ -1317,7 +1356,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>95</v>
       </c>
@@ -1331,7 +1370,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>97</v>
       </c>
@@ -1345,7 +1384,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>99</v>
       </c>
@@ -1362,7 +1401,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>101</v>
       </c>
@@ -1376,7 +1415,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>56</v>
       </c>
@@ -1392,8 +1431,11 @@
       <c r="E27" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F27" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>57</v>
       </c>
@@ -1407,7 +1449,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>59</v>
       </c>
@@ -1421,7 +1463,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>76</v>
       </c>
@@ -1435,7 +1477,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>78</v>
       </c>
@@ -1449,7 +1491,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>80</v>
       </c>
@@ -1463,7 +1505,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>82</v>
       </c>
@@ -1477,7 +1519,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>83</v>
       </c>
@@ -1491,7 +1533,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>85</v>
       </c>
@@ -1505,7 +1547,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>87</v>
       </c>
@@ -1522,7 +1564,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>89</v>
       </c>
@@ -1536,7 +1578,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>91</v>
       </c>
@@ -1550,7 +1592,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>51</v>
       </c>
@@ -1563,8 +1605,11 @@
       <c r="D39" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F39" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>52</v>
       </c>
@@ -1578,7 +1623,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>54</v>
       </c>
@@ -1592,7 +1637,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>61</v>
       </c>
@@ -1609,7 +1654,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>62</v>
       </c>
@@ -1623,7 +1668,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>63</v>
       </c>
@@ -1640,7 +1685,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>64</v>
       </c>
@@ -1657,7 +1702,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>66</v>
       </c>
@@ -1671,7 +1716,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>68</v>
       </c>
@@ -1688,7 +1733,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>70</v>
       </c>
@@ -1702,7 +1747,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>72</v>
       </c>
@@ -1716,7 +1761,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>74</v>
       </c>
@@ -1730,7 +1775,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>8</v>
       </c>
@@ -1747,7 +1792,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>12</v>
       </c>
@@ -1764,7 +1809,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>10</v>
       </c>
@@ -1778,7 +1823,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>14</v>
       </c>
@@ -1794,8 +1839,11 @@
       <c r="E54" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F54" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>18</v>
       </c>
@@ -1812,7 +1860,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>16</v>
       </c>
@@ -1826,7 +1874,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>4</v>
       </c>
@@ -1843,7 +1891,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>6</v>
       </c>
@@ -1860,7 +1908,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>124</v>
       </c>
@@ -1897,7 +1945,7 @@
       <selection sqref="A1:A27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
